--- a/data/pca/factorExposure/factorExposure_2016-09-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-09-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.005396682911000063</v>
+        <v>0.01342547326506076</v>
       </c>
       <c r="C2">
-        <v>-0.05119751450476259</v>
+        <v>0.04291102779545417</v>
       </c>
       <c r="D2">
-        <v>0.02715052285441602</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06658706435712995</v>
+      </c>
+      <c r="E2">
+        <v>0.05369367800028849</v>
+      </c>
+      <c r="F2">
+        <v>-0.08478341194346216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>0.05785027066353372</v>
+        <v>0.03306149289282594</v>
       </c>
       <c r="C3">
-        <v>-0.09954554125971035</v>
+        <v>0.07991384426317689</v>
       </c>
       <c r="D3">
-        <v>0.06547628499881195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.0958047788931273</v>
+      </c>
+      <c r="E3">
+        <v>0.06509518253685093</v>
+      </c>
+      <c r="F3">
+        <v>-0.01567832785924966</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.06111458727515144</v>
+        <v>0.05714799826584337</v>
       </c>
       <c r="C4">
-        <v>-0.0579046231374369</v>
+        <v>0.0659426670503226</v>
       </c>
       <c r="D4">
-        <v>0.0278147893945478</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06307611213865981</v>
+      </c>
+      <c r="E4">
+        <v>0.0519865119749323</v>
+      </c>
+      <c r="F4">
+        <v>-0.08299710728031226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.03106634060306209</v>
+        <v>0.03318275491356798</v>
       </c>
       <c r="C6">
-        <v>-0.03939492548156456</v>
+        <v>0.03527906439495549</v>
       </c>
       <c r="D6">
-        <v>0.02753805487086554</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06985086610611156</v>
+      </c>
+      <c r="E6">
+        <v>0.0590230256516346</v>
+      </c>
+      <c r="F6">
+        <v>-0.07109250025688628</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.0161929388086089</v>
+        <v>0.018919669224022</v>
       </c>
       <c r="C7">
-        <v>-0.03995001939043477</v>
+        <v>0.03693804916461174</v>
       </c>
       <c r="D7">
-        <v>-0.005202324714228541</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0394205082601335</v>
+      </c>
+      <c r="E7">
+        <v>0.03304582557221959</v>
+      </c>
+      <c r="F7">
+        <v>-0.1070837183057814</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.002030757451153904</v>
+        <v>0.004062990751645341</v>
       </c>
       <c r="C8">
-        <v>-0.02170688445409377</v>
+        <v>0.02749784796922562</v>
       </c>
       <c r="D8">
-        <v>0.03009933555911782</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03692650331335272</v>
+      </c>
+      <c r="E8">
+        <v>0.04250220295846079</v>
+      </c>
+      <c r="F8">
+        <v>-0.0528040677952516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.03114072806891824</v>
+        <v>0.0365454083130007</v>
       </c>
       <c r="C9">
-        <v>-0.0411563252602796</v>
+        <v>0.05143588724471317</v>
       </c>
       <c r="D9">
-        <v>0.01630072452169886</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04786535239118692</v>
+      </c>
+      <c r="E9">
+        <v>0.04526015489590957</v>
+      </c>
+      <c r="F9">
+        <v>-0.09060773690754818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.0745137481486622</v>
+        <v>0.1026377362390156</v>
       </c>
       <c r="C10">
-        <v>0.1939598561867578</v>
+        <v>-0.1915710380558527</v>
       </c>
       <c r="D10">
-        <v>0.00883954526876638</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0001523539618128616</v>
+      </c>
+      <c r="E10">
+        <v>0.0456335429423802</v>
+      </c>
+      <c r="F10">
+        <v>-0.03890535739076154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.03604715706307174</v>
+        <v>0.03508440891020692</v>
       </c>
       <c r="C11">
-        <v>-0.05467714935602549</v>
+        <v>0.05124284480021013</v>
       </c>
       <c r="D11">
-        <v>0.005791042583408693</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03502004413367669</v>
+      </c>
+      <c r="E11">
+        <v>0.006140058555616707</v>
+      </c>
+      <c r="F11">
+        <v>-0.06518608130322696</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.03399003938044936</v>
+        <v>0.03570101692078476</v>
       </c>
       <c r="C12">
-        <v>-0.04569162583105533</v>
+        <v>0.04726916324242404</v>
       </c>
       <c r="D12">
-        <v>0.002819639888424719</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02659961141611697</v>
+      </c>
+      <c r="E12">
+        <v>0.01536992994357205</v>
+      </c>
+      <c r="F12">
+        <v>-0.06703871819578673</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.01167929951368657</v>
+        <v>0.01204907098655179</v>
       </c>
       <c r="C13">
-        <v>-0.04030411548665409</v>
+        <v>0.04023183284462521</v>
       </c>
       <c r="D13">
-        <v>0.01764389578056987</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06641178509025543</v>
+      </c>
+      <c r="E13">
+        <v>0.06454981971057611</v>
+      </c>
+      <c r="F13">
+        <v>-0.1129805037937937</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.005227830396744109</v>
+        <v>0.005333863159675896</v>
       </c>
       <c r="C14">
-        <v>-0.03232661124677517</v>
+        <v>0.02939774092581777</v>
       </c>
       <c r="D14">
-        <v>-0.01661282189094275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03094085031378698</v>
+      </c>
+      <c r="E14">
+        <v>0.02855411230199621</v>
+      </c>
+      <c r="F14">
+        <v>-0.09791268007023968</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001448324084356721</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.002935667768876501</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.003660475935840201</v>
+      </c>
+      <c r="E15">
+        <v>0.0002339349342835783</v>
+      </c>
+      <c r="F15">
+        <v>-0.002578287368385475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.03275259165730492</v>
+        <v>0.03267892452989497</v>
       </c>
       <c r="C16">
-        <v>-0.04284517586620006</v>
+        <v>0.04553326347402119</v>
       </c>
       <c r="D16">
-        <v>0.008154169001208175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.03019516207538959</v>
+      </c>
+      <c r="E16">
+        <v>0.0206162458799875</v>
+      </c>
+      <c r="F16">
+        <v>-0.06870015450662205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>0.02155897643728029</v>
+        <v>0.01593915125236033</v>
       </c>
       <c r="C19">
-        <v>-0.05844782588008632</v>
+        <v>0.04983372573805034</v>
       </c>
       <c r="D19">
-        <v>0.07173982005120391</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.101058858733689</v>
+      </c>
+      <c r="E19">
+        <v>0.080395504196717</v>
+      </c>
+      <c r="F19">
+        <v>-0.09142072195995352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01254057981759836</v>
+        <v>0.01311302365615616</v>
       </c>
       <c r="C20">
-        <v>-0.04370239950339542</v>
+        <v>0.04036880439302526</v>
       </c>
       <c r="D20">
-        <v>0.01797885999590022</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04366474618148236</v>
+      </c>
+      <c r="E20">
+        <v>0.0577217880657494</v>
+      </c>
+      <c r="F20">
+        <v>-0.08815288861553856</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.008845931585149258</v>
+        <v>0.007944074372780338</v>
       </c>
       <c r="C21">
-        <v>-0.04884978580420445</v>
+        <v>0.04469159248478526</v>
       </c>
       <c r="D21">
-        <v>0.03610284529614691</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.07385817336763773</v>
+      </c>
+      <c r="E21">
+        <v>0.07552937770085839</v>
+      </c>
+      <c r="F21">
+        <v>-0.1335201361532287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0003876882365042231</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02289782926420632</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03519127622180656</v>
+      </c>
+      <c r="E22">
+        <v>0.01777889913151203</v>
+      </c>
+      <c r="F22">
+        <v>-0.01667617313528609</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0004545091115244039</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02302703706892685</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03488638985420029</v>
+      </c>
+      <c r="E23">
+        <v>0.01807261041682068</v>
+      </c>
+      <c r="F23">
+        <v>-0.01655562813017059</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.02710128639835861</v>
+        <v>0.03176285559666907</v>
       </c>
       <c r="C24">
-        <v>-0.04796869608083473</v>
+        <v>0.05308701759764313</v>
       </c>
       <c r="D24">
-        <v>0.003464274589997685</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02833407357786955</v>
+      </c>
+      <c r="E24">
+        <v>0.0181073784511501</v>
+      </c>
+      <c r="F24">
+        <v>-0.07689644529322533</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.04167720979623264</v>
+        <v>0.04198891120352537</v>
       </c>
       <c r="C25">
-        <v>-0.05973679586972444</v>
+        <v>0.05789373186573472</v>
       </c>
       <c r="D25">
-        <v>-0.005641381264216712</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02613826396452629</v>
+      </c>
+      <c r="E25">
+        <v>0.01322358784149117</v>
+      </c>
+      <c r="F25">
+        <v>-0.07976496975281985</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.01229245997373046</v>
+        <v>0.01344171488462442</v>
       </c>
       <c r="C26">
-        <v>-0.01638902448125781</v>
+        <v>0.01620752815230195</v>
       </c>
       <c r="D26">
-        <v>0.0005244156369915081</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02766368599585036</v>
+      </c>
+      <c r="E26">
+        <v>0.03034267422141099</v>
+      </c>
+      <c r="F26">
+        <v>-0.07341958473049731</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.08610868843641344</v>
+        <v>0.1380667515188579</v>
       </c>
       <c r="C28">
-        <v>0.2217001228740532</v>
+        <v>-0.2407456818950697</v>
       </c>
       <c r="D28">
-        <v>0.005512130574344798</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01571742675864003</v>
+      </c>
+      <c r="E28">
+        <v>0.04880753858111218</v>
+      </c>
+      <c r="F28">
+        <v>-0.05156967931901737</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.008626444910006451</v>
+        <v>0.006326513313844763</v>
       </c>
       <c r="C29">
-        <v>-0.02565916504412874</v>
+        <v>0.02552532744255763</v>
       </c>
       <c r="D29">
-        <v>-0.01564844909258191</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02513445208028904</v>
+      </c>
+      <c r="E29">
+        <v>0.03097008213081504</v>
+      </c>
+      <c r="F29">
+        <v>-0.08992034242650229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.04693167133849872</v>
+        <v>0.04032699606986544</v>
       </c>
       <c r="C30">
-        <v>-0.05925997191565575</v>
+        <v>0.06468757138933615</v>
       </c>
       <c r="D30">
-        <v>0.04690029648903037</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.10969019146382</v>
+      </c>
+      <c r="E30">
+        <v>0.04205079576857375</v>
+      </c>
+      <c r="F30">
+        <v>-0.1009427805237404</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.04508193811443307</v>
+        <v>0.05415199336639347</v>
       </c>
       <c r="C31">
-        <v>-0.03332236373694393</v>
+        <v>0.05389631022852796</v>
       </c>
       <c r="D31">
-        <v>-0.01419849101670966</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.006061929993760491</v>
+      </c>
+      <c r="E31">
+        <v>0.05006710122990637</v>
+      </c>
+      <c r="F31">
+        <v>-0.08077637365108864</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.006422062215203092</v>
+        <v>0.004910411139835457</v>
       </c>
       <c r="C32">
-        <v>-0.0448738992540284</v>
+        <v>0.03222483098886446</v>
       </c>
       <c r="D32">
-        <v>0.01626447317693455</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05162626624461209</v>
+      </c>
+      <c r="E32">
+        <v>0.02451935095459308</v>
+      </c>
+      <c r="F32">
+        <v>-0.07267153644224421</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02535759211683764</v>
+        <v>0.02384983761906679</v>
       </c>
       <c r="C33">
-        <v>-0.05869037700754133</v>
+        <v>0.05369480451724081</v>
       </c>
       <c r="D33">
-        <v>0.02987183049400139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08467759093663497</v>
+      </c>
+      <c r="E33">
+        <v>0.05210890140477113</v>
+      </c>
+      <c r="F33">
+        <v>-0.1270992856560617</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.04312118284928072</v>
+        <v>0.03987351671000393</v>
       </c>
       <c r="C34">
-        <v>-0.05886814156780621</v>
+        <v>0.06384804990163698</v>
       </c>
       <c r="D34">
-        <v>-0.004289622924848076</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03530418247177572</v>
+      </c>
+      <c r="E34">
+        <v>-0.005616052120585568</v>
+      </c>
+      <c r="F34">
+        <v>-0.07472835279716621</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.008477526050004748</v>
+        <v>0.01377398016774002</v>
       </c>
       <c r="C36">
-        <v>-0.01345181094631095</v>
+        <v>0.01173726913162167</v>
       </c>
       <c r="D36">
-        <v>0.00147828686963841</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03055514163457344</v>
+      </c>
+      <c r="E36">
+        <v>0.0370315292350168</v>
+      </c>
+      <c r="F36">
+        <v>-0.08171828362231184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.03046365968545173</v>
+        <v>0.02493742484610895</v>
       </c>
       <c r="C38">
-        <v>-0.02926843407465538</v>
+        <v>0.02517048959354875</v>
       </c>
       <c r="D38">
-        <v>4.931164768854172e-05</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02805717593223932</v>
+      </c>
+      <c r="E38">
+        <v>0.03582086741022562</v>
+      </c>
+      <c r="F38">
+        <v>-0.06575844185367342</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.03869593240327195</v>
+        <v>0.03779269970435183</v>
       </c>
       <c r="C39">
-        <v>-0.07043241440484685</v>
+        <v>0.06825058574493953</v>
       </c>
       <c r="D39">
-        <v>0.02161277586585852</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05404805716452414</v>
+      </c>
+      <c r="E39">
+        <v>0.01977153431912117</v>
+      </c>
+      <c r="F39">
+        <v>-0.09042050914167335</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01617814375236751</v>
+        <v>0.01663716229864726</v>
       </c>
       <c r="C40">
-        <v>-0.03050318408315841</v>
+        <v>0.03676548858063389</v>
       </c>
       <c r="D40">
-        <v>0.03496526691704181</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.04402887252634011</v>
+      </c>
+      <c r="E40">
+        <v>0.0750002947806747</v>
+      </c>
+      <c r="F40">
+        <v>-0.08932976232391378</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.008997011077287346</v>
+        <v>0.01816350626025319</v>
       </c>
       <c r="C41">
-        <v>-0.006263701744183116</v>
+        <v>0.005819127265095044</v>
       </c>
       <c r="D41">
-        <v>0.0004724831441526676</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.0192454537509941</v>
+      </c>
+      <c r="E41">
+        <v>0.03915791621006305</v>
+      </c>
+      <c r="F41">
+        <v>-0.07080832366478033</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>0.00193285050464955</v>
+        <v>0.001316348669524595</v>
       </c>
       <c r="C42">
-        <v>-0.006136324314251637</v>
+        <v>0.003268745863332605</v>
       </c>
       <c r="D42">
-        <v>0.008982833486726976</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.001006652332035395</v>
+      </c>
+      <c r="E42">
+        <v>0.008098454793677429</v>
+      </c>
+      <c r="F42">
+        <v>0.006777922021200079</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.03156066400069088</v>
+        <v>0.02965316346027178</v>
       </c>
       <c r="C43">
-        <v>-0.0208116427076204</v>
+        <v>0.02100142656853197</v>
       </c>
       <c r="D43">
-        <v>0.01209574827069872</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04345481866342897</v>
+      </c>
+      <c r="E43">
+        <v>0.0452187010810632</v>
+      </c>
+      <c r="F43">
+        <v>-0.0831513523119287</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.01559801863678034</v>
+        <v>0.01425261210192796</v>
       </c>
       <c r="C44">
-        <v>-0.05769770620977002</v>
+        <v>0.05120173388540225</v>
       </c>
       <c r="D44">
-        <v>0.0169009854547446</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04261449282316401</v>
+      </c>
+      <c r="E44">
+        <v>0.05886851713810676</v>
+      </c>
+      <c r="F44">
+        <v>-0.08952334585248305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.0004079033425811452</v>
+        <v>0.007234235459272279</v>
       </c>
       <c r="C46">
-        <v>-0.02282576325552429</v>
+        <v>0.02486715005040779</v>
       </c>
       <c r="D46">
-        <v>-0.01829697812712686</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01502590962905803</v>
+      </c>
+      <c r="E46">
+        <v>0.03646029560687872</v>
+      </c>
+      <c r="F46">
+        <v>-0.1034682373153522</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.07898714218128859</v>
+        <v>0.0852831185405169</v>
       </c>
       <c r="C47">
-        <v>-0.07111214930639863</v>
+        <v>0.08116456287423665</v>
       </c>
       <c r="D47">
-        <v>-0.005440163202458475</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01510543230163982</v>
+      </c>
+      <c r="E47">
+        <v>0.05590405936701827</v>
+      </c>
+      <c r="F47">
+        <v>-0.0781498971642</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01802700206138257</v>
+        <v>0.01586755795665021</v>
       </c>
       <c r="C48">
-        <v>-0.01153621827842379</v>
+        <v>0.01725231462223232</v>
       </c>
       <c r="D48">
-        <v>-0.005036162764125781</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02057277305649292</v>
+      </c>
+      <c r="E48">
+        <v>0.04776307351690657</v>
+      </c>
+      <c r="F48">
+        <v>-0.09536644235896004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.08700130411137935</v>
+        <v>0.07198242947712379</v>
       </c>
       <c r="C50">
-        <v>-0.06834627084322778</v>
+        <v>0.07078379752569446</v>
       </c>
       <c r="D50">
-        <v>-0.01399821699491934</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002773586341968122</v>
+      </c>
+      <c r="E50">
+        <v>0.05309446349532531</v>
+      </c>
+      <c r="F50">
+        <v>-0.06792589341646124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.008659842602445336</v>
+        <v>0.01022770494805858</v>
       </c>
       <c r="C51">
-        <v>-0.04664372656025676</v>
+        <v>0.03309106637305403</v>
       </c>
       <c r="D51">
-        <v>0.004511533068371525</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05081809320447799</v>
+      </c>
+      <c r="E51">
+        <v>0.02247826007547262</v>
+      </c>
+      <c r="F51">
+        <v>-0.08596536694080555</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.08243963047931022</v>
+        <v>0.09135575517370227</v>
       </c>
       <c r="C53">
-        <v>-0.07430319658070685</v>
+        <v>0.08892575987503776</v>
       </c>
       <c r="D53">
-        <v>-0.02078891270046877</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03696257672942066</v>
+      </c>
+      <c r="E53">
+        <v>0.05531289274096378</v>
+      </c>
+      <c r="F53">
+        <v>-0.08752298275555001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.03012163371527165</v>
+        <v>0.02774358134051304</v>
       </c>
       <c r="C54">
-        <v>-0.01959637852537696</v>
+        <v>0.02664378296796287</v>
       </c>
       <c r="D54">
-        <v>0.0001665309774812796</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03381783913103444</v>
+      </c>
+      <c r="E54">
+        <v>0.04180936999049227</v>
+      </c>
+      <c r="F54">
+        <v>-0.09447202569195362</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.07145468552740977</v>
+        <v>0.08192368631370599</v>
       </c>
       <c r="C55">
-        <v>-0.0654939794733153</v>
+        <v>0.07270335842290375</v>
       </c>
       <c r="D55">
-        <v>-0.02489830878525789</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04448681733244284</v>
+      </c>
+      <c r="E55">
+        <v>0.04475945905954314</v>
+      </c>
+      <c r="F55">
+        <v>-0.06312519912666117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1486057633147423</v>
+        <v>0.143583716633051</v>
       </c>
       <c r="C56">
-        <v>-0.09250284866861526</v>
+        <v>0.1072568992900081</v>
       </c>
       <c r="D56">
-        <v>-0.02618364712987089</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04779099915987199</v>
+      </c>
+      <c r="E56">
+        <v>0.04937966738775629</v>
+      </c>
+      <c r="F56">
+        <v>-0.04978804850549914</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>0.001292559297227781</v>
+        <v>0.0004690295607357375</v>
       </c>
       <c r="C57">
-        <v>-0.003553940893087249</v>
+        <v>0.001967937083455538</v>
       </c>
       <c r="D57">
-        <v>0.01755224511780066</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01616335155784121</v>
+      </c>
+      <c r="E57">
+        <v>0.007605016118194941</v>
+      </c>
+      <c r="F57">
+        <v>-0.01143021155115008</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.06218307366458624</v>
+        <v>0.03100250633676287</v>
       </c>
       <c r="C58">
-        <v>-0.02559743069447698</v>
+        <v>0.03870053463134386</v>
       </c>
       <c r="D58">
-        <v>0.9512252331096455</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4932881392114245</v>
+      </c>
+      <c r="E58">
+        <v>0.6677212371422119</v>
+      </c>
+      <c r="F58">
+        <v>0.4783673950062832</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1364142841980817</v>
+        <v>0.1503384420931406</v>
       </c>
       <c r="C59">
-        <v>0.2054711330920263</v>
+        <v>-0.1857242504429774</v>
       </c>
       <c r="D59">
-        <v>0.02022407524700175</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03091885409392251</v>
+      </c>
+      <c r="E59">
+        <v>0.02560698297586807</v>
+      </c>
+      <c r="F59">
+        <v>-0.02061948804140153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.3117492246232436</v>
+        <v>0.2809184270900401</v>
       </c>
       <c r="C60">
-        <v>-0.09321208034422908</v>
+        <v>0.101144990307874</v>
       </c>
       <c r="D60">
-        <v>-0.00795510107802732</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1994871003840303</v>
+      </c>
+      <c r="E60">
+        <v>-0.2825353702073644</v>
+      </c>
+      <c r="F60">
+        <v>0.1088045934886333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.03619283750171973</v>
+        <v>0.03953266410398106</v>
       </c>
       <c r="C61">
-        <v>-0.06358771194496013</v>
+        <v>0.06190067849627453</v>
       </c>
       <c r="D61">
-        <v>0.01081415694482364</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04839307069941352</v>
+      </c>
+      <c r="E61">
+        <v>0.02378893203568885</v>
+      </c>
+      <c r="F61">
+        <v>-0.08113412279326068</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01306127645803056</v>
+        <v>0.01444332976572564</v>
       </c>
       <c r="C63">
-        <v>-0.03581070423625654</v>
+        <v>0.03165245714128582</v>
       </c>
       <c r="D63">
-        <v>-0.002220230444429491</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02511673321711031</v>
+      </c>
+      <c r="E63">
+        <v>0.03958176409956713</v>
+      </c>
+      <c r="F63">
+        <v>-0.07531326002031179</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.05147155185516797</v>
+        <v>0.05558999044977176</v>
       </c>
       <c r="C64">
-        <v>-0.03410049558297705</v>
+        <v>0.05504397507280335</v>
       </c>
       <c r="D64">
-        <v>-0.008592827994730224</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.008664676750506282</v>
+      </c>
+      <c r="E64">
+        <v>0.02403687559150155</v>
+      </c>
+      <c r="F64">
+        <v>-0.08926151450240871</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.09043205756623253</v>
+        <v>0.06631932107006368</v>
       </c>
       <c r="C65">
-        <v>-0.04142676220589123</v>
+        <v>0.03897677359674568</v>
       </c>
       <c r="D65">
-        <v>0.04043468485351093</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0868052752568073</v>
+      </c>
+      <c r="E65">
+        <v>0.03136136056517125</v>
+      </c>
+      <c r="F65">
+        <v>-0.0228493669816967</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.05899130500726828</v>
+        <v>0.04968252904097401</v>
       </c>
       <c r="C66">
-        <v>-0.1052974557555291</v>
+        <v>0.09146630329386936</v>
       </c>
       <c r="D66">
-        <v>0.03259022689241445</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08131971041113786</v>
+      </c>
+      <c r="E66">
+        <v>0.02161768477683085</v>
+      </c>
+      <c r="F66">
+        <v>-0.09156049081145172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.05401112807234252</v>
+        <v>0.04766061276867673</v>
       </c>
       <c r="C67">
-        <v>-0.03395621071888232</v>
+        <v>0.03108324383675038</v>
       </c>
       <c r="D67">
-        <v>-0.005846302730942736</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01434069286562048</v>
+      </c>
+      <c r="E67">
+        <v>0.01984603187647599</v>
+      </c>
+      <c r="F67">
+        <v>-0.05223854035389575</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1126112207426161</v>
+        <v>0.1556274713841772</v>
       </c>
       <c r="C68">
-        <v>0.2874159836328374</v>
+        <v>-0.2499734055522407</v>
       </c>
       <c r="D68">
-        <v>0.002581622360234143</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01852954868845733</v>
+      </c>
+      <c r="E68">
+        <v>0.04226523145939562</v>
+      </c>
+      <c r="F68">
+        <v>-0.01878989421279427</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.08521001223111506</v>
+        <v>0.08649509616501759</v>
       </c>
       <c r="C69">
-        <v>-0.06598181660959239</v>
+        <v>0.08695883487443887</v>
       </c>
       <c r="D69">
-        <v>-0.03119685964221423</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008574204228541058</v>
+      </c>
+      <c r="E69">
+        <v>0.03289828983322757</v>
+      </c>
+      <c r="F69">
+        <v>-0.09740154467833669</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1168982066280522</v>
+        <v>0.1476720629105224</v>
       </c>
       <c r="C71">
-        <v>0.2501516220878143</v>
+        <v>-0.2309705895443672</v>
       </c>
       <c r="D71">
-        <v>0.02530561105312201</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01525449269016539</v>
+      </c>
+      <c r="E71">
+        <v>0.06073851289957889</v>
+      </c>
+      <c r="F71">
+        <v>-0.05480696090870557</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.08361014340656758</v>
+        <v>0.09575197514349482</v>
       </c>
       <c r="C72">
-        <v>-0.04948863825251399</v>
+        <v>0.05812272750428125</v>
       </c>
       <c r="D72">
-        <v>-0.01422624974737798</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02128484244659286</v>
+      </c>
+      <c r="E72">
+        <v>0.01172969691822747</v>
+      </c>
+      <c r="F72">
+        <v>-0.08236513954919586</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.4351444376787441</v>
+        <v>0.3450777527291275</v>
       </c>
       <c r="C73">
-        <v>-0.06620764413701677</v>
+        <v>0.08307900953156426</v>
       </c>
       <c r="D73">
-        <v>0.0571806661500712</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.420465012660028</v>
+      </c>
+      <c r="E73">
+        <v>-0.4975874414577279</v>
+      </c>
+      <c r="F73">
+        <v>0.28778076610625</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1125977435877691</v>
+        <v>0.1096907671952455</v>
       </c>
       <c r="C74">
-        <v>-0.1130374074152612</v>
+        <v>0.1022542228287018</v>
       </c>
       <c r="D74">
-        <v>-0.003430812914300383</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02722743618208246</v>
+      </c>
+      <c r="E74">
+        <v>0.06471791584753893</v>
+      </c>
+      <c r="F74">
+        <v>-0.05614156587920881</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.2535076246633675</v>
+        <v>0.2541910096827086</v>
       </c>
       <c r="C75">
-        <v>-0.1159410926385791</v>
+        <v>0.1417741997465458</v>
       </c>
       <c r="D75">
-        <v>-0.03464914955930713</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1274742607208355</v>
+      </c>
+      <c r="E75">
+        <v>0.07642303720008106</v>
+      </c>
+      <c r="F75">
+        <v>-0.01870989117425434</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.1136401245933584</v>
+        <v>0.1266495832472981</v>
       </c>
       <c r="C76">
-        <v>-0.1005228814288004</v>
+        <v>0.1063410515099539</v>
       </c>
       <c r="D76">
-        <v>-0.02274957349264568</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05700454040092505</v>
+      </c>
+      <c r="E76">
+        <v>0.06976646337070506</v>
+      </c>
+      <c r="F76">
+        <v>-0.06585231022578553</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07729641446387099</v>
+        <v>0.06109493960516785</v>
       </c>
       <c r="C77">
-        <v>-0.05708397394403145</v>
+        <v>0.06705088206204725</v>
       </c>
       <c r="D77">
-        <v>0.04572091727846513</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06556084052924736</v>
+      </c>
+      <c r="E77">
+        <v>0.06702320743841945</v>
+      </c>
+      <c r="F77">
+        <v>-0.1118138090119676</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.04308479762660656</v>
+        <v>0.04308441341248061</v>
       </c>
       <c r="C78">
-        <v>-0.04253134659097419</v>
+        <v>0.0541994936775623</v>
       </c>
       <c r="D78">
-        <v>0.01313660967861178</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07480475700152357</v>
+      </c>
+      <c r="E78">
+        <v>0.02433169271297998</v>
+      </c>
+      <c r="F78">
+        <v>-0.1035288148575708</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02229675917413337</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03911601338195001</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05828734312112672</v>
+      </c>
+      <c r="E79">
+        <v>0.05036584272583321</v>
+      </c>
+      <c r="F79">
+        <v>-0.03586129949780939</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.04587788401443206</v>
+        <v>0.03319816480429232</v>
       </c>
       <c r="C80">
-        <v>-0.05256745690937625</v>
+        <v>0.0532909116650477</v>
       </c>
       <c r="D80">
-        <v>0.02979509003915563</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04865049309811388</v>
+      </c>
+      <c r="E80">
+        <v>0.007978442778469833</v>
+      </c>
+      <c r="F80">
+        <v>-0.03179957436320649</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1429723097750462</v>
+        <v>0.1386178148542559</v>
       </c>
       <c r="C81">
-        <v>-0.07830401003012438</v>
+        <v>0.09946342196993027</v>
       </c>
       <c r="D81">
-        <v>-0.01826273177009971</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09372731450853845</v>
+      </c>
+      <c r="E81">
+        <v>0.0831388712925286</v>
+      </c>
+      <c r="F81">
+        <v>-0.02217139363273925</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1214426604174696</v>
+        <v>0.1931295769521537</v>
       </c>
       <c r="C82">
-        <v>-0.06163310602234419</v>
+        <v>0.1415217737971494</v>
       </c>
       <c r="D82">
-        <v>-0.1213493899717145</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2272829122840594</v>
+      </c>
+      <c r="E82">
+        <v>0.01792974699132823</v>
+      </c>
+      <c r="F82">
+        <v>-0.08624768588959079</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.03060666849156346</v>
+        <v>0.02636750526220141</v>
       </c>
       <c r="C83">
-        <v>-0.01944198110829931</v>
+        <v>0.0398746293181244</v>
       </c>
       <c r="D83">
-        <v>0.0128692525010259</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03579927676608679</v>
+      </c>
+      <c r="E83">
+        <v>0.008591165503841838</v>
+      </c>
+      <c r="F83">
+        <v>-0.04890038243669649</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.2288523383670164</v>
+        <v>0.2034861341237636</v>
       </c>
       <c r="C85">
-        <v>-0.1138810369809175</v>
+        <v>0.1277262420370861</v>
       </c>
       <c r="D85">
-        <v>-0.08501970153258082</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1043510571679139</v>
+      </c>
+      <c r="E85">
+        <v>0.007931870653592882</v>
+      </c>
+      <c r="F85">
+        <v>0.02179595346813761</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.0006644973128570649</v>
+        <v>0.01172238354427101</v>
       </c>
       <c r="C86">
-        <v>-0.0234977877979327</v>
+        <v>0.03058500804051131</v>
       </c>
       <c r="D86">
-        <v>0.02084846635416616</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07411252444749056</v>
+      </c>
+      <c r="E86">
+        <v>0.04488712237521193</v>
+      </c>
+      <c r="F86">
+        <v>-0.1381626821010246</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.01626969146017874</v>
+        <v>0.01982789372473914</v>
       </c>
       <c r="C87">
-        <v>-0.01861903421534862</v>
+        <v>0.02132508582954544</v>
       </c>
       <c r="D87">
-        <v>0.09109815818308103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09428439792778999</v>
+      </c>
+      <c r="E87">
+        <v>0.08611159617206195</v>
+      </c>
+      <c r="F87">
+        <v>-0.09103227154983513</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.1031339780925053</v>
+        <v>0.08948405413041709</v>
       </c>
       <c r="C88">
-        <v>-0.07186835962949582</v>
+        <v>0.06476829906764534</v>
       </c>
       <c r="D88">
-        <v>-0.01014024022395664</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01221417971220349</v>
+      </c>
+      <c r="E88">
+        <v>0.03191926124593289</v>
+      </c>
+      <c r="F88">
+        <v>-0.06745409747060115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1863560852502816</v>
+        <v>0.2302920263838877</v>
       </c>
       <c r="C89">
-        <v>0.375583171282817</v>
+        <v>-0.3774618777888204</v>
       </c>
       <c r="D89">
-        <v>-0.02415441738913836</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01317483846648267</v>
+      </c>
+      <c r="E89">
+        <v>0.04043684147320722</v>
+      </c>
+      <c r="F89">
+        <v>-0.09965165072038276</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1765360388066092</v>
+        <v>0.2072218268669585</v>
       </c>
       <c r="C90">
-        <v>0.3434173641335141</v>
+        <v>-0.3119678753843608</v>
       </c>
       <c r="D90">
-        <v>-0.005636056951423538</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01274431205226348</v>
+      </c>
+      <c r="E90">
+        <v>0.0657367131133124</v>
+      </c>
+      <c r="F90">
+        <v>-0.04705189160892994</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.2011451132681356</v>
+        <v>0.1883460604326731</v>
       </c>
       <c r="C91">
-        <v>-0.1111022181990969</v>
+        <v>0.1416510301782575</v>
       </c>
       <c r="D91">
-        <v>-0.03726603958501239</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1006108514851379</v>
+      </c>
+      <c r="E91">
+        <v>0.07452371522354619</v>
+      </c>
+      <c r="F91">
+        <v>-0.04468407880856103</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1693813911518121</v>
+        <v>0.1867829710140594</v>
       </c>
       <c r="C92">
-        <v>0.2887958912476058</v>
+        <v>-0.2776510851858788</v>
       </c>
       <c r="D92">
-        <v>-0.008812348911191049</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.003754873988592715</v>
+      </c>
+      <c r="E92">
+        <v>0.07011028169410646</v>
+      </c>
+      <c r="F92">
+        <v>-0.06809673329269793</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.2024531206145734</v>
+        <v>0.2308075334007679</v>
       </c>
       <c r="C93">
-        <v>0.3425005963867222</v>
+        <v>-0.3164720591108263</v>
       </c>
       <c r="D93">
-        <v>0.007126102531104597</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.000623945543048357</v>
+      </c>
+      <c r="E93">
+        <v>0.05014645056668</v>
+      </c>
+      <c r="F93">
+        <v>-0.04110064908411523</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.3264229004507361</v>
+        <v>0.3376858941703073</v>
       </c>
       <c r="C94">
-        <v>-0.1695787103707087</v>
+        <v>0.1958414285898401</v>
       </c>
       <c r="D94">
-        <v>-0.1404442756821541</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4762505133374887</v>
+      </c>
+      <c r="E94">
+        <v>0.1456588816590403</v>
+      </c>
+      <c r="F94">
+        <v>0.4397661198790824</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.09058476307610656</v>
+        <v>0.08153369877423244</v>
       </c>
       <c r="C95">
-        <v>-0.05632674302192866</v>
+        <v>0.0714524207444576</v>
       </c>
       <c r="D95">
-        <v>0.03927545446012865</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1551251441242594</v>
+      </c>
+      <c r="E95">
+        <v>-0.1348166148857304</v>
+      </c>
+      <c r="F95">
+        <v>-0.1721847541255932</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1950499947848532</v>
+        <v>0.1883174564331205</v>
       </c>
       <c r="C98">
-        <v>-0.01796025816455283</v>
+        <v>0.04256090038995135</v>
       </c>
       <c r="D98">
-        <v>0.03880415810229621</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1722604704231519</v>
+      </c>
+      <c r="E98">
+        <v>-0.1592295676346482</v>
+      </c>
+      <c r="F98">
+        <v>0.03586007318386535</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.008357067036647832</v>
+        <v>0.006209647495631799</v>
       </c>
       <c r="C101">
-        <v>-0.02580189890788799</v>
+        <v>0.02527991208402548</v>
       </c>
       <c r="D101">
-        <v>-0.01586852008581601</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02447439475436766</v>
+      </c>
+      <c r="E101">
+        <v>0.03144268828916051</v>
+      </c>
+      <c r="F101">
+        <v>-0.08943049689938584</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>0.1193875852557006</v>
+        <v>0.1216174439462717</v>
       </c>
       <c r="C102">
-        <v>-0.07390614991037373</v>
+        <v>0.1018485763699613</v>
       </c>
       <c r="D102">
-        <v>-0.03602210778014135</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05078539342223884</v>
+      </c>
+      <c r="E102">
+        <v>-0.00728683147775586</v>
+      </c>
+      <c r="F102">
+        <v>-0.04073653070839607</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
